--- a/biology/Botanique/Thalassodendron/Thalassodendron.xlsx
+++ b/biology/Botanique/Thalassodendron/Thalassodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassodendron  est un genre de plantes monocotylédones de la famille des Cymodoceaceae.
-Le nom générique Thalassodendron dérive du grec « thalasso » (mer) et « dendron » (arbre)[1], pour qualifier une plante qui vit dans la mer.
+Le nom générique Thalassodendron dérive du grec « thalasso » (mer) et « dendron » (arbre), pour qualifier une plante qui vit dans la mer.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants :
 Feuilles portant une gaine à leur base, une ligule à la jonction de la gaine et du limbe,
 Présence de nombreuses cellules à tanin sur les feuilles,
 Feuilles plates,
@@ -548,7 +562,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sont actuellement acceptées dans ce genre :
 selon AlgaeBase :
@@ -584,7 +600,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thalassodendron ciliatum
 Cymodocea ciliata (Forsk.) Ehrenb. ex Asch., 1867
@@ -620,10 +638,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassodendron ciliatum est une espèce fréquente en mer Rouge et dans l'ouest de l'océan Indien. On la trouve sur les côtes du KwaZulu-Natal (Afrique du Sud), dans l'est de la Malaisie, les îles Salomon et le Queensland (Australie).
-Thalassodendron pachyrhizum se recolte sur les côtes tempérées de l'Australie occidentale[2].
+Thalassodendron pachyrhizum se recolte sur les côtes tempérées de l'Australie occidentale.
 </t>
         </is>
       </c>
@@ -653,6 +673,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
